--- a/Summary_dataset.xlsx
+++ b/Summary_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10503"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyao/Documents/NGS/full_length_intron/Paper/FLEXI_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7763D7DC-A3D3-494D-B1C8-08A41DEE2E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BF878A-6D10-464B-99AF-3E82E78472C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="600" windowWidth="27960" windowHeight="19700" xr2:uid="{8BC9D5A2-829F-004B-9620-B4799BF2F9A7}"/>
+    <workbookView xWindow="-26900" yWindow="500" windowWidth="27960" windowHeight="19700" xr2:uid="{8BC9D5A2-829F-004B-9620-B4799BF2F9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="314">
   <si>
     <t>RAW</t>
   </si>
@@ -685,6 +685,288 @@
   </si>
   <si>
     <t>DNaseI-1 to 12, and Exo I-1 to 3</t>
+  </si>
+  <si>
+    <t>HEK-293T</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>YC</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>YBX1-KO</t>
+  </si>
+  <si>
+    <t>MSC1.1.fq.gz</t>
+  </si>
+  <si>
+    <t>MSC2.1.fq.gz</t>
+  </si>
+  <si>
+    <t>MSC1.2.fq.gz</t>
+  </si>
+  <si>
+    <t>MSC2.2.fq.gz</t>
+  </si>
+  <si>
+    <t>PRJNA389469 </t>
+  </si>
+  <si>
+    <t>UFC1</t>
+  </si>
+  <si>
+    <t>UFC2</t>
+  </si>
+  <si>
+    <t>UFC3</t>
+  </si>
+  <si>
+    <t>UFC4</t>
+  </si>
+  <si>
+    <t>UFC5</t>
+  </si>
+  <si>
+    <t>UFC6</t>
+  </si>
+  <si>
+    <t>UFC7</t>
+  </si>
+  <si>
+    <t>Control 1</t>
+  </si>
+  <si>
+    <t>Control 2</t>
+  </si>
+  <si>
+    <t>Control 3</t>
+  </si>
+  <si>
+    <t>NaOH 1</t>
+  </si>
+  <si>
+    <t>NaOH 2</t>
+  </si>
+  <si>
+    <t>DMSO 1</t>
+  </si>
+  <si>
+    <t>DMSO 2</t>
+  </si>
+  <si>
+    <t>CTRLUF.1.fq.gz</t>
+  </si>
+  <si>
+    <t>HCUF.1.fq.gz</t>
+  </si>
+  <si>
+    <t>PCUF.1.fq.gz</t>
+  </si>
+  <si>
+    <t>NAOHUF.1.fq.gz</t>
+  </si>
+  <si>
+    <t>HNUF.1.fq.gz</t>
+  </si>
+  <si>
+    <t>DMSOUF.1.fq.gz</t>
+  </si>
+  <si>
+    <t>PDUF.1.fq.gz</t>
+  </si>
+  <si>
+    <t>CTRLUF.2.fq.gz</t>
+  </si>
+  <si>
+    <t>HCUF.2.fq.gz</t>
+  </si>
+  <si>
+    <t>PCUF.2.fq.gz</t>
+  </si>
+  <si>
+    <t>NAOHUF.2.fq.gz</t>
+  </si>
+  <si>
+    <t>HNUF.2.fq.gz</t>
+  </si>
+  <si>
+    <t>DMSOUF.2.fq.gz</t>
+  </si>
+  <si>
+    <t>PDUF.2.fq.gz</t>
+  </si>
+  <si>
+    <t>PRJNA722757</t>
+  </si>
+  <si>
+    <t>HEK-batch2</t>
+  </si>
+  <si>
+    <t>K562-batch2</t>
+  </si>
+  <si>
+    <t>MDA-batch2</t>
+  </si>
+  <si>
+    <t>UHRR-batch2</t>
+  </si>
+  <si>
+    <t>MDA1</t>
+  </si>
+  <si>
+    <t>MDA2</t>
+  </si>
+  <si>
+    <t>MDA4</t>
+  </si>
+  <si>
+    <t>MDA5</t>
+  </si>
+  <si>
+    <t>MDA3</t>
+  </si>
+  <si>
+    <t>PNK+High salt</t>
+  </si>
+  <si>
+    <t>High salt</t>
+  </si>
+  <si>
+    <t>Low salt</t>
+  </si>
+  <si>
+    <t>PNK+Low salt</t>
+  </si>
+  <si>
+    <t>MTD9.1.fq.gz</t>
+  </si>
+  <si>
+    <t>MTD10.1.fq.gz</t>
+  </si>
+  <si>
+    <t>MTD11.1.fq.gz</t>
+  </si>
+  <si>
+    <t>MTD12.1.fq.gz</t>
+  </si>
+  <si>
+    <t>MTD15.1.fq.gz</t>
+  </si>
+  <si>
+    <t>MTD9.2.fq.gz</t>
+  </si>
+  <si>
+    <t>MTD10.2.fq.gz</t>
+  </si>
+  <si>
+    <t>MTD11.2.fq.gz</t>
+  </si>
+  <si>
+    <t>MTD12.2.fq.gz</t>
+  </si>
+  <si>
+    <t>MTD15.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR0</t>
+  </si>
+  <si>
+    <t>UHRR1</t>
+  </si>
+  <si>
+    <t>UHRR2</t>
+  </si>
+  <si>
+    <t>UHRR3</t>
+  </si>
+  <si>
+    <t>UHRR4</t>
+  </si>
+  <si>
+    <t>UHRR5</t>
+  </si>
+  <si>
+    <t>UHRR6</t>
+  </si>
+  <si>
+    <t>UHRR7</t>
+  </si>
+  <si>
+    <t>UHRR8</t>
+  </si>
+  <si>
+    <t>UHRR9</t>
+  </si>
+  <si>
+    <t>19.1.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR1.1.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR2.1.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR3.1.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR4.1.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR5.1.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR6.1.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR7.1.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR8.1.fq.gz</t>
+  </si>
+  <si>
+    <t>19.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR1.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR2.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR3.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR4.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR5.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR6.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR7.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR8.2.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR9.1.fq.gz</t>
+  </si>
+  <si>
+    <t>UHRR9.2.fq.gz</t>
+  </si>
+  <si>
+    <t>ExoI</t>
+  </si>
+  <si>
+    <t>Batch2</t>
   </si>
 </sst>
 </file>
@@ -695,7 +977,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -706,6 +988,22 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -729,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -737,13 +1035,20 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,21 +1363,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A972EEA1-2771-B544-99C2-5849F94F0BBC}">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107:G110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -1104,7 +1411,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1136,7 +1443,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1166,7 +1473,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1196,7 +1503,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1228,7 +1535,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1258,7 +1565,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1288,7 +1595,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1320,7 +1627,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1350,7 +1657,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1380,7 +1687,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -1412,7 +1719,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1442,7 +1749,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1472,7 +1779,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1504,7 +1811,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1534,7 +1841,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1566,7 +1873,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1596,7 +1903,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1626,7 +1933,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1656,7 +1963,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1683,7 +1990,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1710,7 +2017,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1737,7 +2044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1764,7 +2071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1793,7 +2100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1820,7 +2127,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1847,7 +2154,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1874,7 +2181,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1901,7 +2208,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1928,7 +2235,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1955,7 +2262,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1982,7 +2289,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2014,7 +2321,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2044,7 +2351,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2074,7 +2381,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2104,7 +2411,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2134,7 +2441,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -2164,7 +2471,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -2194,7 +2501,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -2224,7 +2531,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2256,7 +2563,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2286,7 +2593,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2316,7 +2623,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2346,7 +2653,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2376,7 +2683,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2406,7 +2713,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2436,7 +2743,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2466,7 +2773,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2497,11 +2804,11 @@
       <c r="M48" s="1"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="7"/>
       <c r="C49" t="s">
         <v>10</v>
       </c>
@@ -2526,11 +2833,11 @@
       <c r="M49" s="1"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="7"/>
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -2555,11 +2862,11 @@
       <c r="M50" s="1"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="7"/>
       <c r="C51" t="s">
         <v>12</v>
       </c>
@@ -2584,11 +2891,11 @@
       <c r="M51" s="1"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="7"/>
       <c r="C52" t="s">
         <v>13</v>
       </c>
@@ -2613,11 +2920,11 @@
       <c r="M52" s="1"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="7"/>
       <c r="C53" t="s">
         <v>14</v>
       </c>
@@ -2642,11 +2949,11 @@
       <c r="M53" s="1"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="7"/>
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -2671,11 +2978,11 @@
       <c r="M54" s="1"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="5"/>
+      <c r="B55" s="7"/>
       <c r="C55" t="s">
         <v>16</v>
       </c>
@@ -2700,11 +3007,11 @@
       <c r="M55" s="1"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="5"/>
+      <c r="B56" s="7"/>
       <c r="C56" t="s">
         <v>18</v>
       </c>
@@ -2729,11 +3036,11 @@
       <c r="M56" s="1"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="5"/>
+      <c r="B57" s="7"/>
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +3065,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -2787,7 +3094,7 @@
       <c r="M58" s="3"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -2816,7 +3123,7 @@
       <c r="M59" s="3"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -2845,7 +3152,7 @@
       <c r="M60" s="3"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -2874,7 +3181,7 @@
       <c r="M61" s="3"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>216</v>
       </c>
@@ -2892,7 +3199,7 @@
       </c>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -2910,14 +3217,24 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="3">
+        <f>C65/B65</f>
+        <v>0.92421513479578932</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" ref="I65:J65" si="0">D65/C65</f>
+        <v>0.97584314002314065</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97536089416798033</v>
+      </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -2935,16 +3252,26 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="3">
+        <f t="shared" ref="H66:H77" si="1">C66/B66</f>
+        <v>0.9157619907634198</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" ref="I66:I77" si="2">D66/C66</f>
+        <v>0.97435343090873394</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" ref="J66:J77" si="3">E66/D66</f>
+        <v>0.96993019905817612</v>
+      </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:18">
+      <c r="A67" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="1">
@@ -2961,16 +3288,26 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92970294812340659</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97522191861256968</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95628625214503293</v>
+      </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:18">
+      <c r="A68" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="1">
@@ -2987,15 +3324,25 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="H68" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89589457317605747</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96975014793070391</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96653967796335494</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3013,15 +3360,25 @@
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93470892070620348</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98192701010857852</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97452983797506343</v>
+      </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -3039,15 +3396,25 @@
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="H70" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9285911817336846</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98357120809819421</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97349682053970088</v>
+      </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3065,15 +3432,25 @@
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95821528585863058</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97674594456898201</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94678491710052481</v>
+      </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -3091,15 +3468,25 @@
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="H72" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9742123106763757</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98448195970077657</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97864198271890024</v>
+      </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -3117,15 +3504,25 @@
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="H73" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97959177572384881</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98456641059556171</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96591573715419132</v>
+      </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -3143,15 +3540,25 @@
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="H74" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94391033431582283</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95660522716159857</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="3"/>
+        <v>0.91821884298605794</v>
+      </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>218</v>
       </c>
@@ -3171,27 +3578,893 @@
         <v>219</v>
       </c>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91257435370956197</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57937648288228094</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="3"/>
+        <v>0.87205232964630897</v>
+      </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="R75" s="1"/>
     </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" s="1">
+        <v>224094992</v>
+      </c>
+      <c r="C76" s="1">
+        <v>211000290</v>
+      </c>
+      <c r="D76" s="1">
+        <v>180794765</v>
+      </c>
+      <c r="E76" s="1">
+        <v>162553450</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94156628899587369</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85684604983244339</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="3"/>
+        <v>0.89910484963433535</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>260</v>
+      </c>
+      <c r="B77" s="1">
+        <v>59373386</v>
+      </c>
+      <c r="C77" s="1">
+        <v>54566895</v>
+      </c>
+      <c r="D77" s="1">
+        <v>47860177</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45511300</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91904637205632844</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="2"/>
+        <v>0.87709181546796822</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95092209959858698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="1">
+        <v>314807897</v>
+      </c>
+      <c r="C78" s="1">
+        <v>274271649</v>
+      </c>
+      <c r="D78" s="1">
+        <v>259124456</v>
+      </c>
+      <c r="E78" s="1">
+        <v>243728019</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" ref="H78:H79" si="4">C78/B78</f>
+        <v>0.87123497095754243</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" ref="I78:I79" si="5">D78/C78</f>
+        <v>0.94477302683224107</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" ref="J78:J79" si="6">E78/D78</f>
+        <v>0.9405828487296467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="1">
+        <v>416406185</v>
+      </c>
+      <c r="C79" s="1">
+        <v>397295326</v>
+      </c>
+      <c r="D79" s="1">
+        <v>359362293</v>
+      </c>
+      <c r="E79" s="1">
+        <v>293000631</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95410524701980592</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="5"/>
+        <v>0.90452182415053128</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" si="6"/>
+        <v>0.81533493276101732</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="1">
+        <v>120251272</v>
+      </c>
+      <c r="E83" s="1">
+        <v>115773808</v>
+      </c>
+      <c r="F83" s="1">
+        <v>99564097</v>
+      </c>
+      <c r="G83" s="1">
+        <v>88886676</v>
+      </c>
+      <c r="H83" t="s">
+        <v>225</v>
+      </c>
+      <c r="I83" t="s">
+        <v>227</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" s="1">
+        <v>103843720</v>
+      </c>
+      <c r="E84" s="1">
+        <v>95226482</v>
+      </c>
+      <c r="F84" s="1">
+        <v>81230668</v>
+      </c>
+      <c r="G84" s="1">
+        <v>73666774</v>
+      </c>
+      <c r="H84" t="s">
+        <v>226</v>
+      </c>
+      <c r="I84" t="s">
+        <v>228</v>
+      </c>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="1">
+        <v>7199001</v>
+      </c>
+      <c r="E85" s="1">
+        <v>6604221</v>
+      </c>
+      <c r="F85" s="1">
+        <v>5700094</v>
+      </c>
+      <c r="G85" s="1">
+        <v>5265888</v>
+      </c>
+      <c r="H85" t="s">
+        <v>244</v>
+      </c>
+      <c r="I85" t="s">
+        <v>251</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="1">
+        <v>8530323</v>
+      </c>
+      <c r="E86" s="1">
+        <v>8062256</v>
+      </c>
+      <c r="F86" s="1">
+        <v>7258578</v>
+      </c>
+      <c r="G86" s="1">
+        <v>6976983</v>
+      </c>
+      <c r="H86" t="s">
+        <v>245</v>
+      </c>
+      <c r="I86" t="s">
+        <v>252</v>
+      </c>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" s="1">
+        <v>8458285</v>
+      </c>
+      <c r="E87" s="1">
+        <v>7907433</v>
+      </c>
+      <c r="F87" s="1">
+        <v>6925758</v>
+      </c>
+      <c r="G87" s="1">
+        <v>6664888</v>
+      </c>
+      <c r="H87" t="s">
+        <v>246</v>
+      </c>
+      <c r="I87" t="s">
+        <v>253</v>
+      </c>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>233</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="1">
+        <v>7953908</v>
+      </c>
+      <c r="E88" s="1">
+        <v>6424178</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5408190</v>
+      </c>
+      <c r="G88" s="1">
+        <v>5066839</v>
+      </c>
+      <c r="H88" t="s">
+        <v>247</v>
+      </c>
+      <c r="I88" t="s">
+        <v>254</v>
+      </c>
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" t="s">
+        <v>241</v>
+      </c>
+      <c r="D89" s="1">
+        <v>7738532</v>
+      </c>
+      <c r="E89" s="1">
+        <v>7230997</v>
+      </c>
+      <c r="F89" s="1">
+        <v>6342889</v>
+      </c>
+      <c r="G89" s="1">
+        <v>6104628</v>
+      </c>
+      <c r="H89" t="s">
+        <v>248</v>
+      </c>
+      <c r="I89" t="s">
+        <v>255</v>
+      </c>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="1">
+        <v>8941963</v>
+      </c>
+      <c r="E90" s="1">
+        <v>8116287</v>
+      </c>
+      <c r="F90" s="1">
+        <v>6941957</v>
+      </c>
+      <c r="G90" s="1">
+        <v>6472882</v>
+      </c>
+      <c r="H90" t="s">
+        <v>249</v>
+      </c>
+      <c r="I90" t="s">
+        <v>256</v>
+      </c>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>236</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="1">
+        <v>10551374</v>
+      </c>
+      <c r="E91" s="1">
+        <v>10221523</v>
+      </c>
+      <c r="F91" s="1">
+        <v>9282711</v>
+      </c>
+      <c r="G91" s="1">
+        <v>8959192</v>
+      </c>
+      <c r="H91" t="s">
+        <v>250</v>
+      </c>
+      <c r="I91" t="s">
+        <v>257</v>
+      </c>
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="1">
+        <v>65735249</v>
+      </c>
+      <c r="E92" s="1">
+        <v>40253977</v>
+      </c>
+      <c r="F92" s="1">
+        <v>37067082</v>
+      </c>
+      <c r="G92" s="1">
+        <v>33244711</v>
+      </c>
+      <c r="H92" t="s">
+        <v>272</v>
+      </c>
+      <c r="I92" t="s">
+        <v>277</v>
+      </c>
+      <c r="J92" s="6"/>
+      <c r="L92" s="10"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>264</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="1">
+        <v>62832539</v>
+      </c>
+      <c r="E93" s="1">
+        <v>58722270</v>
+      </c>
+      <c r="F93" s="1">
+        <v>55224062</v>
+      </c>
+      <c r="G93" s="1">
+        <v>51461404</v>
+      </c>
+      <c r="H93" t="s">
+        <v>273</v>
+      </c>
+      <c r="I93" t="s">
+        <v>278</v>
+      </c>
+      <c r="J93" s="6"/>
+      <c r="L93" s="10"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>267</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" s="1">
+        <v>57529467</v>
+      </c>
+      <c r="E94" s="1">
+        <v>55111897</v>
+      </c>
+      <c r="F94" s="1">
+        <v>52426381</v>
+      </c>
+      <c r="G94" s="1">
+        <v>50483550</v>
+      </c>
+      <c r="H94" t="s">
+        <v>274</v>
+      </c>
+      <c r="I94" t="s">
+        <v>279</v>
+      </c>
+      <c r="J94" s="6"/>
+      <c r="L94" s="10"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>265</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="1">
+        <v>52287116</v>
+      </c>
+      <c r="E95" s="1">
+        <v>49497434</v>
+      </c>
+      <c r="F95" s="1">
+        <v>46851911</v>
+      </c>
+      <c r="G95" s="1">
+        <v>44794751</v>
+      </c>
+      <c r="H95" t="s">
+        <v>275</v>
+      </c>
+      <c r="I95" t="s">
+        <v>280</v>
+      </c>
+      <c r="J95" s="6"/>
+      <c r="L95" s="10"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" s="1">
+        <v>76423526</v>
+      </c>
+      <c r="E96" s="1">
+        <v>70686071</v>
+      </c>
+      <c r="F96" s="1">
+        <v>67555020</v>
+      </c>
+      <c r="G96" s="1">
+        <v>63743603</v>
+      </c>
+      <c r="H96" t="s">
+        <v>276</v>
+      </c>
+      <c r="I96" t="s">
+        <v>281</v>
+      </c>
+      <c r="J96" s="6"/>
+      <c r="L96" s="10"/>
+    </row>
+    <row r="97" spans="1:12" ht="17">
+      <c r="A97" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D97" s="1">
+        <v>24089529</v>
+      </c>
+      <c r="E97" s="1">
+        <v>23114834</v>
+      </c>
+      <c r="F97" s="1">
+        <v>21744662</v>
+      </c>
+      <c r="G97" s="1">
+        <v>20250254</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J97" s="6"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" ht="17">
+      <c r="A98" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="1">
+        <v>50954553</v>
+      </c>
+      <c r="E98" s="1">
+        <v>47593480</v>
+      </c>
+      <c r="F98" s="1">
+        <v>38212559</v>
+      </c>
+      <c r="G98" s="1">
+        <v>29821540</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J98" s="6"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" ht="17">
+      <c r="A99" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="1">
+        <v>39943006</v>
+      </c>
+      <c r="E99" s="1">
+        <v>38188982</v>
+      </c>
+      <c r="F99" s="1">
+        <v>35376687</v>
+      </c>
+      <c r="G99" s="1">
+        <v>29013342</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J99" s="6"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" ht="17">
+      <c r="A100" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="1">
+        <v>40429892</v>
+      </c>
+      <c r="E100" s="1">
+        <v>38255038</v>
+      </c>
+      <c r="F100" s="1">
+        <v>35131499</v>
+      </c>
+      <c r="G100" s="1">
+        <v>28655635</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J100" s="6"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" ht="17">
+      <c r="A101" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="1">
+        <v>46437404</v>
+      </c>
+      <c r="E101" s="1">
+        <v>44529570</v>
+      </c>
+      <c r="F101" s="1">
+        <v>40724358</v>
+      </c>
+      <c r="G101" s="1">
+        <v>33071737</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J101" s="6"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" ht="17">
+      <c r="A102" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="1">
+        <v>44462456</v>
+      </c>
+      <c r="E102" s="1">
+        <v>42709462</v>
+      </c>
+      <c r="F102" s="1">
+        <v>38938071</v>
+      </c>
+      <c r="G102" s="1">
+        <v>31618535</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J102" s="6"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" ht="17">
+      <c r="A103" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="1">
+        <v>42915259</v>
+      </c>
+      <c r="E103" s="1">
+        <v>41141692</v>
+      </c>
+      <c r="F103" s="1">
+        <v>37683086</v>
+      </c>
+      <c r="G103" s="1">
+        <v>30927638</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J103" s="6"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" ht="17">
+      <c r="A104" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="1">
+        <v>44091456</v>
+      </c>
+      <c r="E104" s="1">
+        <v>42371448</v>
+      </c>
+      <c r="F104" s="1">
+        <v>38933929</v>
+      </c>
+      <c r="G104" s="1">
+        <v>31352957</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J104" s="6"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" ht="17">
+      <c r="A105" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="1">
+        <v>43206591</v>
+      </c>
+      <c r="E105" s="1">
+        <v>41828679</v>
+      </c>
+      <c r="F105" s="1">
+        <v>38267462</v>
+      </c>
+      <c r="G105" s="1">
+        <v>30916984</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J105" s="6"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" ht="17">
+      <c r="A106" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="1">
+        <v>39876039</v>
+      </c>
+      <c r="E106" s="1">
+        <v>37562141</v>
+      </c>
+      <c r="F106" s="1">
+        <v>34349980</v>
+      </c>
+      <c r="G106" s="1">
+        <v>27372009</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J106" s="6"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="17">
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="J85:J106"/>
+    <mergeCell ref="C97:C106"/>
+    <mergeCell ref="B97:B106"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="B32:B39"/>
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B23"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>